--- a/horario.xlsx
+++ b/horario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alumnofp\Desktop\web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alumnofp\Desktop\web\demonIers.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4845E359-B0DE-4776-92E3-3829B6543F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5890E75A-33A5-4142-AF33-B9BD6048983D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FEE619DB-78B6-49B5-8AC5-79F40199C12C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="16">
   <si>
     <t xml:space="preserve">lunes </t>
   </si>
@@ -48,12 +48,6 @@
     <t>Trabajo</t>
   </si>
   <si>
-    <t>camino al bus</t>
-  </si>
-  <si>
-    <t>bus</t>
-  </si>
-  <si>
     <t>entreno</t>
   </si>
   <si>
@@ -69,13 +63,16 @@
     <t>trabajo:</t>
   </si>
   <si>
-    <t>Entreno</t>
-  </si>
-  <si>
     <t>Sami</t>
   </si>
   <si>
     <t>Libre</t>
+  </si>
+  <si>
+    <t>trabajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bus </t>
   </si>
 </sst>
 </file>
@@ -498,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCCC856-0858-464D-9FC9-A832194EEF9F}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,19 +529,19 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -552,19 +549,19 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -572,19 +569,19 @@
         <v>0.625</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -592,19 +589,19 @@
         <v>0.63541666666666696</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -612,19 +609,19 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -632,19 +629,19 @@
         <v>0.65625</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -655,16 +652,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -675,16 +672,16 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -695,16 +692,16 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -715,16 +712,16 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -735,16 +732,16 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -755,16 +752,16 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -775,13 +772,16 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -789,16 +789,16 @@
         <v>0.73958333333333304</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -806,16 +806,16 @@
         <v>0.749999999999999</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -823,16 +823,16 @@
         <v>0.76041666666666596</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -840,16 +840,16 @@
         <v>0.77083333333333304</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -857,16 +857,16 @@
         <v>0.781249999999999</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -874,16 +874,16 @@
         <v>0.79166666666666596</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -891,16 +891,16 @@
         <v>0.80208333333333304</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -908,16 +908,16 @@
         <v>0.812499999999999</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -925,16 +925,16 @@
         <v>0.82291666666666596</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -942,16 +942,16 @@
         <v>0.83333333333333204</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -959,16 +959,16 @@
         <v>0.843749999999999</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -976,16 +976,16 @@
         <v>0.85416666666666596</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -993,16 +993,16 @@
         <v>0.86458333333333204</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1010,16 +1010,16 @@
         <v>0.874999999999999</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1027,16 +1027,16 @@
         <v>0.88541666666666596</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1044,16 +1044,16 @@
         <v>0.89583333333333204</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1061,16 +1061,16 @@
         <v>0.906249999999999</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1078,10 +1078,10 @@
         <v>0.91666666666666596</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1108,7 +1108,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>2.75</v>
